--- a/static/template_files/template-form-2.xlsx
+++ b/static/template_files/template-form-2.xlsx
@@ -11,42 +11,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Ngày</t>
   </si>
   <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>F0 (PCR)</t>
-  </si>
-  <si>
-    <t>Nghi nhiễm (XN nhanh)</t>
-  </si>
-  <si>
-    <t>Tăng giảm PCR so ngày trước</t>
-  </si>
-  <si>
-    <t>XN sàng học lại BV</t>
-  </si>
-  <si>
-    <t>XN các TTYT làm tại CĐ</t>
-  </si>
-  <si>
-    <t>XN tại TT cách ly</t>
-  </si>
-  <si>
-    <t>Cộng ca F0</t>
-  </si>
-  <si>
-    <t>Tỉnh</t>
-  </si>
-  <si>
-    <t>Nhập cảnh</t>
-  </si>
-  <si>
-    <t>HCM</t>
+    <t>Quận/huyện</t>
+  </si>
+  <si>
+    <t>Số ca nhiễm mới</t>
+  </si>
+  <si>
+    <t>Thành phố Thủ Đức</t>
+  </si>
+  <si>
+    <t>Quận 1</t>
+  </si>
+  <si>
+    <t>Quận 3</t>
+  </si>
+  <si>
+    <t>Quận 4</t>
+  </si>
+  <si>
+    <t>Quận 5</t>
+  </si>
+  <si>
+    <t>Quận 6</t>
+  </si>
+  <si>
+    <t>Quận 7</t>
+  </si>
+  <si>
+    <t>Quận 8</t>
+  </si>
+  <si>
+    <t>Quận 10</t>
+  </si>
+  <si>
+    <t>Quận 11</t>
+  </si>
+  <si>
+    <t>Quận 12</t>
+  </si>
+  <si>
+    <t>Quận Bình Thạnh</t>
+  </si>
+  <si>
+    <t>Quận Bình Tân</t>
+  </si>
+  <si>
+    <t>Quận Phú Nhuận</t>
+  </si>
+  <si>
+    <t>Quận Tân Bình</t>
+  </si>
+  <si>
+    <t>Quận Tân Phú</t>
+  </si>
+  <si>
+    <t>Quận Gò Vấp</t>
+  </si>
+  <si>
+    <t>Huyện Củ Chi</t>
+  </si>
+  <si>
+    <t>Huyện Cần Giờ</t>
+  </si>
+  <si>
+    <t>Huyện Bình Chánh</t>
+  </si>
+  <si>
+    <t>Huyện Hóc Môn</t>
+  </si>
+  <si>
+    <t>Huyện Nhà Bè</t>
   </si>
 </sst>
 </file>
@@ -56,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -66,24 +105,21 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor rgb="FF0000FF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -102,7 +138,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -340,91 +382,183 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>486.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>342.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>214.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-29.0</v>
+      <c r="B5" s="3">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>1042.0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>682.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>1041.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>67.0</v>
+      <c r="B11" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
